--- a/templates/daily-report-template-20230201142600.xlsx
+++ b/templates/daily-report-template-20230201142600.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="182">
   <si>
     <t>Detail transaction</t>
   </si>
@@ -780,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,6 +845,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
@@ -1135,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1186,40 +1207,112 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="30" t="n">
-        <v>45044.5546028588</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="A3" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="37" t="n">
+        <v>45044.439956724535</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="37" t="n">
+        <v>45045.665053171295</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F4" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="37" t="n">
+        <v>45046.453889675926</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G5" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
